--- a/Pruebas/PDMaestroDocumentos.xlsx
+++ b/Pruebas/PDMaestroDocumentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/METFOR/Pruebas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE9926E-612B-994A-BAD9-240A1469C893}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B8ED2-3FD0-9242-A503-8F25E51469EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="16340" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="226">
   <si>
     <t>METFOR</t>
   </si>
@@ -695,6 +695,18 @@
   </si>
   <si>
     <t>Script_Base_de_Datos</t>
+  </si>
+  <si>
+    <t>Plantilla plan de pruebas</t>
+  </si>
+  <si>
+    <t>PL Plan_Pruebas</t>
+  </si>
+  <si>
+    <t>Plan de pruebas</t>
+  </si>
+  <si>
+    <t>PD_Plan_Pruebas</t>
   </si>
 </sst>
 </file>
@@ -1586,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
-  <dimension ref="A2:J158"/>
+  <dimension ref="A2:J159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D126" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139:H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4606,10 +4618,10 @@
         <v>33</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="F139" s="16">
         <v>1</v>
@@ -4629,13 +4641,13 @@
         <v>202</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F140" s="16">
         <v>1</v>
@@ -4658,10 +4670,10 @@
         <v>26</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F141" s="16">
         <v>1</v>
@@ -4684,10 +4696,10 @@
         <v>26</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F142" s="16">
         <v>1</v>
@@ -4710,10 +4722,10 @@
         <v>26</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F143" s="16">
         <v>1</v>
@@ -4736,10 +4748,10 @@
         <v>26</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F144" s="16">
         <v>1</v>
@@ -4762,10 +4774,10 @@
         <v>26</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F145" s="16">
         <v>1</v>
@@ -4785,13 +4797,13 @@
         <v>202</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="F146" s="16">
         <v>1</v>
@@ -4814,10 +4826,10 @@
         <v>43</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="F147" s="16">
         <v>1</v>
@@ -4840,10 +4852,10 @@
         <v>43</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F148" s="16">
         <v>1</v>
@@ -4866,10 +4878,10 @@
         <v>43</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F149" s="16">
         <v>1</v>
@@ -4883,13 +4895,20 @@
       <c r="I149" s="34"/>
       <c r="J149" s="28"/>
     </row>
-    <row r="150" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="32"/>
       <c r="B150" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C150" s="13"/>
-      <c r="D150" s="21"/>
-      <c r="E150" s="16"/>
+      <c r="C150" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="F150" s="16">
         <v>1</v>
       </c>
@@ -4899,14 +4918,22 @@
       <c r="H150" s="35" t="s">
         <v>24</v>
       </c>
+      <c r="I150" s="34"/>
+      <c r="J150" s="28"/>
     </row>
     <row r="151" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B151" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C151" s="13"/>
-      <c r="D151" s="21"/>
-      <c r="E151" s="16"/>
+      <c r="C151" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>223</v>
+      </c>
       <c r="F151" s="16">
         <v>1</v>
       </c>
@@ -5033,6 +5060,23 @@
         <v>23</v>
       </c>
       <c r="H158" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C159" s="13"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16">
+        <v>1</v>
+      </c>
+      <c r="G159" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H159" s="35" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Pruebas/PDMaestroDocumentos.xlsx
+++ b/Pruebas/PDMaestroDocumentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/METFOR/Pruebas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B8ED2-3FD0-9242-A503-8F25E51469EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C4A8F0-0F3B-1749-B1FB-EEDBE9B9E7FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="16340" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="16240" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="228">
   <si>
     <t>METFOR</t>
   </si>
@@ -707,6 +707,12 @@
   </si>
   <si>
     <t>PD_Plan_Pruebas</t>
+  </si>
+  <si>
+    <t>Plantilla Bitacora</t>
+  </si>
+  <si>
+    <t>PL BItacora</t>
   </si>
 </sst>
 </file>
@@ -1600,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
   <dimension ref="A2:J159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139:H139"/>
+    <sheetView tabSelected="1" topLeftCell="D129" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4948,9 +4954,15 @@
       <c r="B152" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C152" s="13"/>
-      <c r="D152" s="21"/>
-      <c r="E152" s="16"/>
+      <c r="C152" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>227</v>
+      </c>
       <c r="F152" s="16">
         <v>1</v>
       </c>
